--- a/doc/接口文档/客户接口.xlsx
+++ b/doc/接口文档/客户接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>添加客户</t>
   </si>
@@ -229,6 +229,9 @@
     <t>/customer/account/listByApprove.action</t>
   </si>
   <si>
+    <t>申请状态</t>
+  </si>
+  <si>
     <t>每页显示数量</t>
   </si>
   <si>
@@ -274,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -309,15 +312,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,6 +329,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,24 +350,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,9 +371,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,16 +411,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,40 +420,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,6 +492,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,7 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,96 +540,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,13 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +568,84 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -650,15 +653,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,6 +667,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +701,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,21 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -730,26 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -758,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +773,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1">
       <alignment vertical="center"/>
@@ -1287,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="Q1" s="7"/>
-      <c r="R1" s="8">
+      <c r="R1" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1339,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="R2" s="8">
+      <c r="R2" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1371,7 +1377,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
@@ -1403,7 +1409,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3"/>
@@ -1431,7 +1437,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3"/>
@@ -1459,7 +1465,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4"/>
@@ -1483,7 +1489,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6"/>
@@ -1507,7 +1513,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="6"/>
@@ -1531,7 +1537,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="6"/>
@@ -1555,7 +1561,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6"/>
@@ -1579,7 +1585,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6"/>
@@ -1603,7 +1609,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="6"/>
@@ -1627,7 +1633,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6"/>
@@ -1651,7 +1657,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
@@ -1675,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="8">
+      <c r="R24" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1699,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="7"/>
-      <c r="R25" s="8">
+      <c r="R25" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1731,7 +1737,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3" t="s">
@@ -1763,7 +1769,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3"/>
@@ -1791,7 +1797,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="8"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3"/>
@@ -1815,7 +1821,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
@@ -1839,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="7"/>
-      <c r="R38" s="8">
+      <c r="R38" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1863,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="Q39" s="7"/>
-      <c r="R39" s="8">
+      <c r="R39" s="9">
         <v>101</v>
       </c>
     </row>
@@ -1895,7 +1901,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="9"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3" t="s">
@@ -1927,7 +1933,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3"/>
@@ -1955,7 +1961,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
+      <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3"/>
@@ -1979,7 +1985,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
+      <c r="R43" s="9"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3"/>
@@ -2003,7 +2009,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="4"/>
@@ -2027,7 +2033,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="6"/>
@@ -2051,7 +2057,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="6"/>
@@ -2075,7 +2081,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="8"/>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="6"/>
@@ -2099,7 +2105,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
+      <c r="R48" s="9"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="6"/>
@@ -2123,7 +2129,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
+      <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="6"/>
@@ -2147,7 +2153,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
+      <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="6"/>
@@ -2171,7 +2177,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="8"/>
+      <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="6"/>
@@ -2195,7 +2201,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="8"/>
+      <c r="R52" s="9"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
@@ -2219,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="7"/>
-      <c r="R61" s="8">
+      <c r="R61" s="9">
         <v>100</v>
       </c>
     </row>
@@ -2243,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="Q62" s="7"/>
-      <c r="R62" s="8">
+      <c r="R62" s="9">
         <v>101</v>
       </c>
     </row>
@@ -2277,7 +2283,7 @@
         <v>43</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="R63" s="8">
+      <c r="R63" s="9">
         <v>102</v>
       </c>
     </row>
@@ -2311,7 +2317,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
-      <c r="R64" s="8"/>
+      <c r="R64" s="9"/>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3"/>
@@ -2339,7 +2345,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
-      <c r="R65" s="8"/>
+      <c r="R65" s="9"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="3"/>
@@ -2367,7 +2373,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="8"/>
+      <c r="R66" s="9"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3"/>
@@ -2393,7 +2399,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="8"/>
+      <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="4"/>
@@ -2417,7 +2423,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
-      <c r="R68" s="8"/>
+      <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="6"/>
@@ -2441,7 +2447,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="8"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="6"/>
@@ -2465,7 +2471,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
-      <c r="R70" s="8"/>
+      <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="6"/>
@@ -2489,7 +2495,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
-      <c r="R71" s="8"/>
+      <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="6"/>
@@ -2513,7 +2519,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="8"/>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="6"/>
@@ -2537,7 +2543,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
-      <c r="R73" s="8"/>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="6"/>
@@ -2561,7 +2567,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="8"/>
+      <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="6"/>
@@ -2585,7 +2591,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
-      <c r="R75" s="8"/>
+      <c r="R75" s="9"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="6"/>
@@ -2609,7 +2615,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
-      <c r="R76" s="8"/>
+      <c r="R76" s="9"/>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="6"/>
@@ -2633,7 +2639,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
-      <c r="R77" s="8"/>
+      <c r="R77" s="9"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
@@ -2657,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="7"/>
-      <c r="R86" s="8">
+      <c r="R86" s="9">
         <v>100</v>
       </c>
     </row>
@@ -2681,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="Q87" s="7"/>
-      <c r="R87" s="8">
+      <c r="R87" s="9">
         <v>101</v>
       </c>
     </row>
@@ -2713,7 +2719,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
-      <c r="R88" s="8"/>
+      <c r="R88" s="9"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="3" t="s">
@@ -2745,7 +2751,7 @@
       <c r="O89" s="3"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
-      <c r="R89" s="8"/>
+      <c r="R89" s="9"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="3"/>
@@ -2773,7 +2779,7 @@
       <c r="O90" s="3"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
-      <c r="R90" s="8"/>
+      <c r="R90" s="9"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="3"/>
@@ -2781,9 +2787,13 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
@@ -2795,7 +2805,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="8"/>
+      <c r="R91" s="9"/>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="4"/>
@@ -2819,7 +2829,7 @@
       <c r="O92" s="3"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
-      <c r="R92" s="8"/>
+      <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="6"/>
@@ -2843,7 +2853,7 @@
       <c r="O93" s="3"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
-      <c r="R93" s="8"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="6"/>
@@ -2867,7 +2877,7 @@
       <c r="O94" s="3"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
-      <c r="R94" s="8"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="6"/>
@@ -2891,7 +2901,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
-      <c r="R95" s="8"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="6"/>
@@ -2915,7 +2925,7 @@
       <c r="O96" s="3"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
-      <c r="R96" s="8"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="6"/>
@@ -2939,7 +2949,7 @@
       <c r="O97" s="3"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
-      <c r="R97" s="8"/>
+      <c r="R97" s="9"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="6"/>
@@ -2963,7 +2973,7 @@
       <c r="O98" s="3"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
-      <c r="R98" s="8"/>
+      <c r="R98" s="9"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="6"/>
@@ -2987,7 +2997,7 @@
       <c r="O99" s="3"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
-      <c r="R99" s="8"/>
+      <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="6"/>
@@ -3011,7 +3021,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
-      <c r="R100" s="8"/>
+      <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="6"/>
@@ -3035,7 +3045,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
-      <c r="R101" s="8"/>
+      <c r="R101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="291">
@@ -3342,8 +3352,8 @@
   <sheetPr/>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3373,14 +3383,14 @@
         <v>1</v>
       </c>
       <c r="Q1" s="7"/>
-      <c r="R1" s="8">
+      <c r="R1" s="9">
         <v>100</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1"/>
@@ -3402,12 +3412,12 @@
         <v>2</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="R2" s="8">
+      <c r="R2" s="9">
         <v>101</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -3439,14 +3449,14 @@
         <v>57</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8">
+      <c r="R3" s="9">
         <v>102</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11">
+      <c r="U3" s="11"/>
+      <c r="V3" s="12">
         <v>10</v>
       </c>
     </row>
@@ -3480,12 +3490,12 @@
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-      <c r="T4" s="10" t="s">
+      <c r="R4" s="9"/>
+      <c r="T4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11">
+      <c r="U4" s="11"/>
+      <c r="V4" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3515,12 +3525,12 @@
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="T5" s="10" t="s">
+      <c r="R5" s="9"/>
+      <c r="T5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11">
+      <c r="U5" s="11"/>
+      <c r="V5" s="12">
         <v>12</v>
       </c>
     </row>
@@ -3550,7 +3560,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4"/>
@@ -3574,7 +3584,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
@@ -3598,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="8">
+      <c r="R17" s="9">
         <v>100</v>
       </c>
     </row>
@@ -3622,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="8">
+      <c r="R18" s="9">
         <v>101</v>
       </c>
     </row>
@@ -3654,7 +3664,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
@@ -3684,8 +3694,10 @@
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="P20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18">
@@ -3712,8 +3724,8 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18">
@@ -3740,9 +3752,13 @@
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="4"/>
@@ -3755,7 +3771,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -3766,9 +3782,13 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="4"/>
@@ -3782,7 +3802,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
@@ -3790,9 +3810,13 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
+      <c r="R24" s="9">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4"/>
@@ -3806,17 +3830,17 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="6"/>
@@ -3840,7 +3864,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="6"/>
@@ -3864,7 +3888,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="6"/>
@@ -3882,13 +3906,13 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="8"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="6"/>
@@ -3902,21 +3926,21 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3936,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="7"/>
-      <c r="R38" s="8">
+      <c r="R38" s="9">
         <v>100</v>
       </c>
     </row>
@@ -3960,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="Q39" s="7"/>
-      <c r="R39" s="8">
+      <c r="R39" s="9">
         <v>101</v>
       </c>
     </row>
@@ -3992,11 +4016,11 @@
       <c r="O40" s="2"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="9"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4024,7 +4048,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3"/>
@@ -4052,7 +4076,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
+      <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3"/>
@@ -4080,7 +4104,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
+      <c r="R43" s="9"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3"/>
@@ -4093,7 +4117,7 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -4106,7 +4130,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="3"/>
@@ -4120,7 +4144,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
@@ -4130,7 +4154,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3"/>
@@ -4144,17 +4168,17 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="4"/>
@@ -4178,7 +4202,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="8"/>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="6"/>
@@ -4202,7 +4226,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
+      <c r="R48" s="9"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="6"/>
@@ -4220,13 +4244,13 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
+      <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="6"/>
@@ -4240,21 +4264,21 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
+      <c r="R50" s="9"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4274,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="8">
+      <c r="R56" s="9">
         <v>100</v>
       </c>
     </row>
@@ -4298,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="8">
+      <c r="R57" s="9">
         <v>101</v>
       </c>
     </row>
@@ -4330,11 +4354,11 @@
       <c r="O58" s="2"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="8"/>
+      <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4362,7 +4386,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="8"/>
+      <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3"/>
@@ -4390,7 +4414,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="8"/>
+      <c r="R60" s="9"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3"/>
@@ -4399,7 +4423,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
@@ -4414,11 +4438,11 @@
       <c r="O61" s="3"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="8"/>
+      <c r="R61" s="9"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4438,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="7"/>
-      <c r="R67" s="8">
+      <c r="R67" s="9">
         <v>100</v>
       </c>
     </row>
@@ -4462,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="Q68" s="7"/>
-      <c r="R68" s="8">
+      <c r="R68" s="9">
         <v>101</v>
       </c>
     </row>
@@ -4494,11 +4518,11 @@
       <c r="O69" s="2"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="8"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4526,7 +4550,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
-      <c r="R70" s="8"/>
+      <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="3"/>
@@ -4554,7 +4578,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
-      <c r="R71" s="8"/>
+      <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3"/>
@@ -4563,7 +4587,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
@@ -4578,10 +4602,10 @@
       <c r="O72" s="3"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="8"/>
+      <c r="R72" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="190">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -4625,12 +4649,10 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
@@ -4773,6 +4795,7 @@
     <mergeCell ref="A56:O57"/>
     <mergeCell ref="A67:O68"/>
     <mergeCell ref="T1:V2"/>
+    <mergeCell ref="P20:R21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/接口文档/客户接口.xlsx
+++ b/doc/接口文档/客户接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="10485" activeTab="1"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>添加客户</t>
   </si>
@@ -136,13 +136,19 @@
     <t>teamArea</t>
   </si>
   <si>
-    <t>所在区域</t>
+    <t>公司地址</t>
   </si>
   <si>
     <t>teamAddress</t>
   </si>
   <si>
-    <t>详细地址</t>
+    <t>发货地址</t>
+  </si>
+  <si>
+    <t>latLng</t>
+  </si>
+  <si>
+    <t>经纬度</t>
   </si>
   <si>
     <t>删除客户</t>
@@ -276,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -319,9 +325,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,45 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,30 +381,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -419,25 +396,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,7 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,37 +540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +576,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,49 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,25 +636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +659,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,17 +716,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,50 +759,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +779,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,10 +1297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:D89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,34 +1665,34 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="1" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="9">
-        <v>100</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1702,96 +1708,92 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1806,51 +1808,55 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="9"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="9">
-        <v>100</v>
-      </c>
+    <row r="30" spans="1:18">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="9"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1866,96 +1872,92 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="9"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -1970,17 +1972,21 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="7"/>
@@ -1994,11 +2000,11 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2012,17 +2018,17 @@
       <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2036,17 +2042,17 @@
       <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2066,11 +2072,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2090,11 +2096,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2114,11 +2120,11 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2138,11 +2144,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2162,11 +2168,11 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2186,11 +2192,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2203,34 +2209,58 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="9"/>
     </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="9">
-        <v>100</v>
-      </c>
+    <row r="53" spans="1:18">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2246,100 +2276,96 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="7"/>
       <c r="R62" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="7" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="9"/>
-    </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -2353,21 +2379,21 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -2382,19 +2408,21 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="M67" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="7"/>
@@ -2402,23 +2430,25 @@
       <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="7"/>
@@ -2426,22 +2456,22 @@
       <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -2461,11 +2491,11 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -2485,11 +2515,11 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -2509,11 +2539,11 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -2533,11 +2563,11 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -2557,11 +2587,11 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -2581,11 +2611,11 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -2605,11 +2635,11 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -2629,11 +2659,11 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -2641,34 +2671,58 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="9"/>
     </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="9">
-        <v>100</v>
-      </c>
+    <row r="78" spans="1:18">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="9"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="9"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2684,96 +2738,92 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="7"/>
       <c r="R87" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:18">
+      <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2" t="s">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="9"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="9"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -2788,19 +2838,21 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="7"/>
@@ -2808,23 +2860,25 @@
       <c r="R91" s="9"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="3"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="7"/>
@@ -2832,22 +2886,22 @@
       <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -2867,11 +2921,11 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -2891,11 +2945,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -2915,11 +2969,11 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -2939,11 +2993,11 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -2963,11 +3017,11 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -2987,11 +3041,11 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -3011,11 +3065,11 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -3035,11 +3089,11 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -3047,8 +3101,56 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="9"/>
     </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="9"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="291">
+  <mergeCells count="303">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -3097,19 +3199,16 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:O26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="K27:O27"/>
     <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:L28"/>
@@ -3120,19 +3219,19 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:O40"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="K41:O41"/>
     <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="K42:L42"/>
@@ -3140,11 +3239,11 @@
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:O43"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:O44"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:J45"/>
@@ -3186,19 +3285,21 @@
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:O63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="K64:O64"/>
     <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:L65"/>
@@ -3211,12 +3312,12 @@
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:O67"/>
     <mergeCell ref="P67:Q67"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="K68:O68"/>
     <mergeCell ref="P68:Q68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="H69:J69"/>
@@ -3263,19 +3364,23 @@
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:O79"/>
     <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:O88"/>
     <mergeCell ref="P88:Q88"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="K89:O89"/>
     <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:D90"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="K90:L90"/>
@@ -3283,12 +3388,12 @@
     <mergeCell ref="P90:Q90"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:O91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
     <mergeCell ref="P91:Q91"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="K92:O92"/>
     <mergeCell ref="P92:Q92"/>
     <mergeCell ref="F93:G93"/>
     <mergeCell ref="H93:J93"/>
@@ -3335,11 +3440,20 @@
     <mergeCell ref="K101:L101"/>
     <mergeCell ref="M101:O101"/>
     <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:O103"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A24:O25"/>
-    <mergeCell ref="A38:O39"/>
-    <mergeCell ref="A61:O62"/>
-    <mergeCell ref="A86:O87"/>
+    <mergeCell ref="A25:O26"/>
+    <mergeCell ref="A39:O40"/>
+    <mergeCell ref="A62:O63"/>
+    <mergeCell ref="A87:O88"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3352,7 +3466,7 @@
   <sheetPr/>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F71" sqref="F71:G71"/>
     </sheetView>
   </sheetViews>
@@ -3363,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3387,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -3446,14 +3560,14 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="9">
         <v>102</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="12">
@@ -3462,7 +3576,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3492,7 +3606,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="9"/>
       <c r="T4" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U4" s="11"/>
       <c r="V4" s="12">
@@ -3527,7 +3641,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="9"/>
       <c r="T5" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="12">
@@ -3541,7 +3655,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3554,7 +3668,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -3588,7 +3702,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3668,7 +3782,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3695,7 +3809,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -3735,25 +3849,25 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="9">
@@ -3767,23 +3881,23 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="9">
@@ -3802,16 +3916,16 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="9">
@@ -3830,11 +3944,11 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3854,7 +3968,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
@@ -3906,7 +4020,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3926,11 +4040,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3940,7 +4054,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4020,7 +4134,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4085,20 +4199,20 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4113,16 +4227,16 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4144,11 +4258,11 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4168,11 +4282,11 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4192,7 +4306,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -4244,7 +4358,7 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -4264,11 +4378,11 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -4278,7 +4392,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4358,7 +4472,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4423,11 +4537,11 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -4442,7 +4556,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4522,7 +4636,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4587,11 +4701,11 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
